--- a/newData.xlsx
+++ b/newData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Εγγραφές" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,38 +397,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>bob</v>
+        <v>ΑΜ</v>
       </c>
       <c r="B1" t="str">
-        <v>alice</v>
+        <v>Επώνυμο</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Όνομα</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Πατρώνυμο</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Έτος_Γέννησης</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Διεύθυνση</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Σταθερό</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Κινητό</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Έτος_Εγγραφής</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Τάξη</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Καθηγητής</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
+      <c r="A2" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Πλάτωνος 14, 14563 Κηφισιά</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H2" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I2" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Δ' Τάξη</v>
+      </c>
+      <c r="L2" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
+      <c r="A3" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Πλάτωνος 14, 14563 Κηφισιά</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H3" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I3" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Δ' Τάξη</v>
+      </c>
+      <c r="L3" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/newData.xlsx
+++ b/newData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,9 +516,47 @@
         <v>π. Σωτήριος Αλεβιζάκης</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Πλάτωνος 14, 14563, Κηφισιά</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H4" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I4" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Β' Τάξη</v>
+      </c>
+      <c r="L4" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/newData.xlsx
+++ b/newData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,9 +554,85 @@
         <v>π. Σωτήριος Αλεβιζάκης</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Κωντανίνος</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ασδασδ</v>
+      </c>
+      <c r="G5" t="str">
+        <v>124152125</v>
+      </c>
+      <c r="H5" t="str">
+        <v>15169172731</v>
+      </c>
+      <c r="I5" t="str">
+        <v>mail@mail.com</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Δ' Τάξη</v>
+      </c>
+      <c r="L5" t="str">
+        <v>π. Κωνσταντίνος Βασιλάκης</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>123ια</v>
+      </c>
+      <c r="B6" t="str">
+        <v>σαδφ</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ασφ</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ασδγ</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F6" t="str">
+        <v>ασδσα</v>
+      </c>
+      <c r="G6" t="str">
+        <v>9157231</v>
+      </c>
+      <c r="H6" t="str">
+        <v>510725</v>
+      </c>
+      <c r="I6" t="str">
+        <v>asd@mail.com</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Β' Τάξη</v>
+      </c>
+      <c r="L6" t="str">
+        <v>π. Αναστάσιος Τραϊφόρος</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/newData.xlsx
+++ b/newData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +439,9 @@
       <c r="L1" t="str">
         <v>Καθηγητής</v>
       </c>
+      <c r="M1" t="str">
+        <v>Έτος_Φοίτησης</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -630,9 +633,655 @@
         <v>π. Αναστάσιος Τραϊφόρος</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H7" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I7" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L7" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H8" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I8" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L8" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F9" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H9" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I9" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L9" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H10" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I10" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L10" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H11" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I11" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L11" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M11" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H12" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I12" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L12" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M12" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H13" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I13" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L13" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M13" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H14" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I14" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L14" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M14" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H15" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I15" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L15" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M15" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F16" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H16" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I16" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L16" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M16" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F17" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H17" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I17" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L17" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M17" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="str">
+        <v>abasf</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H18" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I18" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L18" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+      <c r="M18" t="str">
+        <v>2022-2023</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ασδσαδ</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H19" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I19" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J19" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L19" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F20" t="str">
+        <v>ασδσαδ</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H20" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I20" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L20" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F21" t="str">
+        <v>ασδσαδ</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H21" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I21" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J21" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L21" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F22" t="str">
+        <v>ασδσαδ</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H22" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I22" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J22" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L22" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>ΑΜ609507</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Χαφής</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Κωνσταντίνος</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Θωμάς</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2002</v>
+      </c>
+      <c r="F23" t="str">
+        <v>ασδσαδ</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2107221441</v>
+      </c>
+      <c r="H23" t="str">
+        <v>6978096018</v>
+      </c>
+      <c r="I23" t="str">
+        <v>koxafis@gmail.com</v>
+      </c>
+      <c r="J23" t="str">
+        <v>2022-2023</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Γ' Τάξη</v>
+      </c>
+      <c r="L23" t="str">
+        <v>π. Σωτήριος Αλεβιζάκης</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M23"/>
   </ignoredErrors>
 </worksheet>
 </file>